--- a/KineticModel/o2_test.xlsx
+++ b/KineticModel/o2_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="22995" windowHeight="8250"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="22995" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="o2_test" sheetId="1" r:id="rId1"/>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4839,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
